--- a/biology/Zoologie/Cerambyx/Cerambyx.xlsx
+++ b/biology/Zoologie/Cerambyx/Cerambyx.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cerambyx est un genre d'insectes coléoptères de la famille des Cerambycidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Sous-genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>D'après BioLib                    (4 juillet 2020)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>D'après BioLib                    (4 juillet 2020) :
 sous-genre Cerambyx Linnaeus, 1758
 sous-genre Microcerambyx Miksic &amp; Georgijevic, 1973</t>
         </is>
@@ -543,9 +557,11 @@
           <t>Espèces rencontrées en Europe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>D'après Fauna Europaea                                      (19 mars 2022)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>D'après Fauna Europaea                                      (19 mars 2022) :
 Cerambyx carinatus Küster, 1846
 Cerambyx cerdo Linnaeus, 1758 — grand capricorne du chêne
 Cerambyx dux (Faldermann, 1837)
@@ -580,7 +596,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Cerambyx est nommé d'après Cérambos, musicien de la mythologie grecque.
 </t>
